--- a/biology/Botanique/Jatropha_integerrima/Jatropha_integerrima.xlsx
+++ b/biology/Botanique/Jatropha_integerrima/Jatropha_integerrima.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jatropha integerrima est une espèce de plantes à fleurs de la famille des Euphorbiaceae, originaire de Cuba et Hispaniola.
 Elle est connue aux Antilles françaises sous les noms d’Epicar (épika en créole), Médicinier, Médicinier-guitare, et à La Réunion sous les noms de Pignon d'Inde Epicar, Guitare, Jatropha-Fleur.
@@ -517,7 +529,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Jatropha integerrima est un arbuste ou un arbrisseau de 1,5 à 4 m de haut, très branchu.
 Les feuilles ont un pétiole rougeâtre de 2-8 cm, et possèdent un limbe de formes très variées : ovale à ovato-oblong, parfois hasté, de 3-12 × 2-6 cm, entier ou portant parfois 1 à 2 lobes latéraux aigus discrets. La base est tronquée à subcordée, le sommet aigu-acuminé. Les stipules sont entières ou minuscules, persistantes, triangulaires, de moins de 1 mm. Les rameaux portent une pilosité pubérulente à hirsute, glabrescent avec l'âge. La sève est aqueuse ou faiblement lactescente.
@@ -555,7 +569,9 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La plante est originaire de Cuba et d'Hispaniola.
 Cet arbrisseau très ornemental est cultivé partout sous les tropiques.
@@ -587,10 +603,12 @@
           <t>Propriétés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le latex est toxique. Les feuilles ingérées accidentellement causent des gastralgies et peuvent être très purgatives.
-Les Jatropha sont réputés contenir de nombreux diterpènes[1].
+Les Jatropha sont réputés contenir de nombreux diterpènes.
 </t>
         </is>
       </c>
